--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359414.6907284291</v>
+        <v>375786.0103676621</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556146</v>
+        <v>2629876.587221764</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839639</v>
+        <v>19997574.02179438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4848165.015971368</v>
+        <v>4902964.689084984</v>
       </c>
     </row>
     <row r="11">
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>14.31059503474164</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="W2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.55470292302859</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.179267534626545</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H5" t="n">
-        <v>12.35200489467393</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I5" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,28 +1057,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="J7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,25 +1215,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F9" t="n">
-        <v>23.55470292302859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,25 +1330,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H11" t="n">
-        <v>2.361305680129117</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T12" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U12" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>27.59002526031614</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="I13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>12.35200489467393</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D17" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1926,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F18" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C19" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>15.97482201990261</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>29.88929839105575</v>
+        <v>133.4269036908112</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>150.252752286242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>98.47382483861917</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,67 +2798,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>9.234466016111838</v>
       </c>
     </row>
     <row r="30">
@@ -2871,22 +2871,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5847537007502174</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>25.17733485611659</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>90.16066412513263</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,11 +3263,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3275,61 +3275,61 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>121.7911906719549</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>30.86155971440648</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,61 +3424,61 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>89.98138655216529</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="E41" t="n">
-        <v>41.86138390904481</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.62918003347386</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>229.0204371761346</v>
+        <v>209.957781095761</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C45" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N2" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U2" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V2" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W2" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X2" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F3" t="n">
-        <v>86.56747182608416</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G3" t="n">
-        <v>58.69875944192644</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H3" t="n">
-        <v>30.83004705776872</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I3" t="n">
-        <v>2.961334673611005</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M3" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N3" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O3" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>110.17902272346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H4" t="n">
-        <v>82.31031033930225</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44159795514453</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
-        <v>26.57288557098681</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>31.39257439093933</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>58.7066993986523</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>86.02082440636528</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C5" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D5" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E5" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F5" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G5" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H5" t="n">
-        <v>42.14590365206637</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M5" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X5" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.83004705776872</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C6" t="n">
-        <v>2.961334673611005</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D6" t="n">
-        <v>2.961334673611005</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E6" t="n">
-        <v>2.961334673611005</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F6" t="n">
-        <v>2.961334673611005</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G6" t="n">
-        <v>2.961334673611005</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H6" t="n">
-        <v>2.961334673611005</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N6" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O6" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>86.56747182608416</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>86.56747182608416</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>86.56747182608416</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>86.56747182608416</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>58.69875944192644</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>58.69875944192644</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X6" t="n">
-        <v>30.83004705776872</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.83004705776872</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>108.3077753610589</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="E7" t="n">
-        <v>108.3077753610589</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="F7" t="n">
-        <v>108.3077753610589</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G7" t="n">
-        <v>108.3077753610589</v>
+        <v>13.245045875396</v>
       </c>
       <c r="H7" t="n">
-        <v>80.43906297690118</v>
+        <v>13.245045875396</v>
       </c>
       <c r="I7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F8" t="n">
-        <v>70.01461603622408</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="G8" t="n">
-        <v>70.01461603622408</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="H8" t="n">
-        <v>42.14590365206637</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L8" t="n">
-        <v>55.73185102583861</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M8" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N8" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O8" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y8" t="n">
-        <v>70.01461603622408</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D9" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E9" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F9" t="n">
-        <v>58.69875944192644</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G9" t="n">
-        <v>58.69875944192644</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>30.83004705776872</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M9" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H10" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I10" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J10" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>50.00249887508694</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>22.13378649092923</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>22.13378649092923</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="D11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="F11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G11" t="n">
-        <v>44.53106090472204</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H11" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I11" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M11" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N11" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>84.14957704396423</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>72.39977328887976</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.53106090472204</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>2.207202020825291</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M12" t="n">
-        <v>28.41772601812563</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N12" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O12" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S12" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T12" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="F13" t="n">
-        <v>108.3077753610589</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="G13" t="n">
-        <v>80.43906297690118</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="H13" t="n">
-        <v>52.57035059274347</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I13" t="n">
-        <v>24.70163820858575</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J13" t="n">
-        <v>24.70163820858575</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F14" t="n">
-        <v>97.8833284203818</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G14" t="n">
-        <v>70.01461603622408</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H14" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I14" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L14" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M14" t="n">
-        <v>84.14957704396423</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N14" t="n">
-        <v>84.14957704396423</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O14" t="n">
-        <v>84.14957704396423</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.56747182608416</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C15" t="n">
-        <v>86.56747182608416</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D15" t="n">
-        <v>86.56747182608416</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E15" t="n">
-        <v>86.56747182608416</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F15" t="n">
-        <v>58.69875944192644</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G15" t="n">
-        <v>58.69875944192644</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H15" t="n">
-        <v>30.83004705776872</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M15" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P15" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T15" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U15" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V15" t="n">
-        <v>86.56747182608416</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W15" t="n">
-        <v>86.56747182608416</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X15" t="n">
-        <v>86.56747182608416</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y15" t="n">
-        <v>86.56747182608416</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.70163820858575</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C16" t="n">
-        <v>24.70163820858575</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D16" t="n">
-        <v>24.70163820858575</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E16" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F16" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G16" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H16" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I16" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J16" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R16" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S16" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T16" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U16" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V16" t="n">
-        <v>108.3077753610589</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W16" t="n">
-        <v>80.43906297690118</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X16" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.70163820858575</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C17" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D17" t="n">
-        <v>123.1178524655551</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E17" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O17" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W17" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X17" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D18" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E18" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G18" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N18" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O18" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.245045875396</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S19" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T19" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U19" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V19" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W19" t="n">
-        <v>93.21247408113457</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X19" t="n">
-        <v>53.22875997826529</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.22875997826529</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>480.6742980174409</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>480.6742980174409</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>321.4368430119854</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>174.9022850388704</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>36.17145962148592</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2696759935595</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>75.41817578802664</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>75.41817578802664</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
         <v>829.5248650203655</v>
@@ -5935,25 +5935,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.47235360622864</v>
+        <v>313.2932483084068</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X24" t="n">
-        <v>257.2326523711826</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.47235360622864</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
         <v>20.03527576299844</v>
@@ -6312,7 +6312,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>610.1001040146123</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>610.1001040146123</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X27" t="n">
-        <v>402.2486038090794</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6412,16 +6412,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.6244618379714</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C30" t="n">
-        <v>110.1714325568443</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D30" t="n">
-        <v>109.5807722530562</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
         <v>109.5807722530562</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>938.6255041408215</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>736.4389094995875</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X30" t="n">
-        <v>492.3847606029253</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y30" t="n">
-        <v>284.6244618379714</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="31">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6783,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>872.9857776064619</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>670.7991829652278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>670.7991829652278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>435.6470747334852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6883,10 +6883,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6914,13 +6914,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X36" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
         <v>829.5248650203655</v>
@@ -7126,19 +7126,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.6244618379714</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C39" t="n">
-        <v>110.1714325568443</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="D39" t="n">
-        <v>110.1714325568443</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="E39" t="n">
-        <v>110.1714325568443</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>492.3847606029253</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X39" t="n">
-        <v>492.3847606029253</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.6244618379714</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>291.9396360702316</v>
+        <v>496.626357174339</v>
       </c>
       <c r="C41" t="n">
-        <v>291.9396360702316</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="D41" t="n">
-        <v>291.9396360702316</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E41" t="n">
-        <v>249.6554098994793</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>121.3366408850131</v>
+        <v>104.1029673515831</v>
       </c>
       <c r="L41" t="n">
-        <v>301.4124924696717</v>
+        <v>284.1788189362417</v>
       </c>
       <c r="M41" t="n">
-        <v>518.3881197325759</v>
+        <v>501.1544461991459</v>
       </c>
       <c r="N41" t="n">
-        <v>724.2426419398153</v>
+        <v>707.0089684063852</v>
       </c>
       <c r="O41" t="n">
-        <v>873.4375920824633</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>905.9901333363114</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>754.6071859210086</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>754.6071859210086</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="T41" t="n">
-        <v>754.6071859210086</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="U41" t="n">
-        <v>754.6071859210086</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="V41" t="n">
-        <v>754.6071859210086</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="W41" t="n">
-        <v>754.6071859210086</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="X41" t="n">
-        <v>754.6071859210086</v>
+        <v>496.626357174339</v>
       </c>
       <c r="Y41" t="n">
-        <v>523.2734109956201</v>
+        <v>496.626357174339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.07576762687648</v>
+        <v>352.6077637634042</v>
       </c>
       <c r="C42" t="n">
-        <v>19.07576762687648</v>
+        <v>178.1547344822772</v>
       </c>
       <c r="D42" t="n">
-        <v>19.07576762687648</v>
+        <v>178.1547344822772</v>
       </c>
       <c r="E42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>19.07576762687648</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>143.6791950319282</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>279.977805482441</v>
+        <v>248.8803853451708</v>
       </c>
       <c r="M42" t="n">
-        <v>506.7080382868143</v>
+        <v>482.9817188708391</v>
       </c>
       <c r="N42" t="n">
-        <v>506.7080382868143</v>
+        <v>717.0830523965075</v>
       </c>
       <c r="O42" t="n">
-        <v>733.4382710911875</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>742.6644041552073</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="T42" t="n">
-        <v>742.6644041552073</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="U42" t="n">
-        <v>742.6644041552073</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="V42" t="n">
-        <v>511.3306292298188</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="W42" t="n">
-        <v>279.9968543044303</v>
+        <v>560.3680625283581</v>
       </c>
       <c r="X42" t="n">
-        <v>279.9968543044303</v>
+        <v>560.3680625283581</v>
       </c>
       <c r="Y42" t="n">
-        <v>72.23655553947634</v>
+        <v>352.6077637634042</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="C43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="D43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="E43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="F43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="G43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>45.63575998180374</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>84.82379817402592</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>128.5146488294622</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="V43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="W43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="X43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.32163497409077</v>
+        <v>153.4495699670924</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.94462678914073</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C44" t="n">
-        <v>30.07591440498301</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="D44" t="n">
-        <v>2.207202020825291</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="E44" t="n">
-        <v>2.207202020825291</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="F44" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M44" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N44" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R44" t="n">
-        <v>100.2684856730375</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S44" t="n">
-        <v>100.2684856730375</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T44" t="n">
-        <v>100.2684856730375</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="U44" t="n">
-        <v>100.2684856730375</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="V44" t="n">
-        <v>100.2684856730375</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="W44" t="n">
-        <v>85.81333917329844</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="X44" t="n">
-        <v>57.94462678914073</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.94462678914073</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.49138865710684</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="C45" t="n">
-        <v>57.94462678914073</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D45" t="n">
-        <v>57.94462678914073</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E45" t="n">
-        <v>57.94462678914073</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F45" t="n">
-        <v>30.07591440498301</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L45" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M45" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N45" t="n">
-        <v>55.73185102583861</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O45" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W45" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X45" t="n">
-        <v>82.49138865710684</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="Y45" t="n">
-        <v>82.49138865710684</v>
+        <v>83.88827101547153</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.81333917329844</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>57.94462678914073</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>30.07591440498301</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>30.07591440498301</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>30.07591440498301</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>30.07591440498301</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W46" t="n">
-        <v>30.07591440498301</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X46" t="n">
-        <v>30.07591440498301</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>262.2416917349371</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>257.0030888569071</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O2" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>169.7240591823345</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N3" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8076,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8298,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>161.5644326746464</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>165.029656544824</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>158.9317373436494</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>257.0030888569071</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O11" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>257.7082725202193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M12" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O12" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P14" t="n">
-        <v>257.7082725202193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>164.3167157393088</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M15" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9021,10 +9021,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,10 +9091,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>171.9589358120561</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,7 +9723,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10443,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,10 +10914,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>306.1360004134264</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>274.3079014341333</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>276.2297438713013</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>371.154471098153</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>371.616681620579</v>
+        <v>373.6880842874513</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11300,16 +11300,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N44" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>256.5734881866366</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>164.3167157393088</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L45" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O45" t="n">
-        <v>170.1862697047606</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P45" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22604,16 +22604,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>313.4416634353933</v>
+        <v>292.8867796421457</v>
       </c>
       <c r="W2" t="n">
-        <v>321.6509434570969</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X2" t="n">
-        <v>342.1410754181529</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y2" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22635,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5145094703553</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G3" t="n">
-        <v>109.7534919028945</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H3" t="n">
-        <v>84.64541897618032</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I3" t="n">
-        <v>61.80660759109894</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8117118238322</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.6371472471234</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I4" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H5" t="n">
-        <v>327.1227972210932</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I5" t="n">
-        <v>182.8858643100898</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22841,13 +22841,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,7 +22863,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,16 +22872,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>76.60313122961455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22920,13 +22920,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22945,28 +22945,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H7" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>127.8604496669421</v>
+        <v>145.472922565994</v>
       </c>
       <c r="J7" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.542173200479953</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H8" t="n">
-        <v>311.884776855451</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I8" t="n">
-        <v>182.8858643100898</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,13 +23063,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.6587639061162</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23103,25 +23103,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F9" t="n">
-        <v>121.5145094703553</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H9" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,25 +23218,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>232.4103246984251</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H11" t="n">
-        <v>337.113496435638</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I11" t="n">
-        <v>182.8858643100898</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>122.2790926808335</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S11" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.56780889232699</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0931458435217</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T12" t="n">
-        <v>172.5747034345055</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U12" t="n">
-        <v>201.6400878316884</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23425,19 +23425,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.2417804883047</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>134.6371472471234</v>
+        <v>137.6566757453241</v>
       </c>
       <c r="I13" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>394.5240408470375</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G14" t="n">
-        <v>387.7127122548189</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H14" t="n">
-        <v>311.884776855451</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I14" t="n">
-        <v>182.8858643100898</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23583,19 +23583,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H15" t="n">
-        <v>84.64541897618032</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I15" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23631,7 +23631,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>209.2458842263967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>136.4564102853049</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23710,16 +23710,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>251.9583757892015</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,25 +23732,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D17" t="n">
-        <v>319.8175627926938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F17" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23783,7 +23783,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23792,7 +23792,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23814,22 +23814,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F18" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.2481032200967</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C19" t="n">
-        <v>157.2692687373636</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8250225705301</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>246.9391213747504</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X19" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23984,10 +23984,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>116.4078829812627</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.9575212988316</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>96.26062221659386</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24145,13 +24145,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24221,7 +24221,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,13 +24257,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24285,13 +24285,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>142.81920059726</v>
+        <v>39.28159529750454</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24339,16 +24339,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24570,22 +24570,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>82.54783486318325</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>153.2211583223004</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,7 +24686,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>377.0034726399417</v>
       </c>
     </row>
     <row r="30">
@@ -24759,22 +24759,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>146.8603118638885</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>146.5058362477212</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,13 +24932,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>329.2548215453339</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>81.5225069787052</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25242,16 +25242,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>23.278021721429</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>201.9390274350188</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>324.7966126378724</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25433,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,7 +25479,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>55.08782584121859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25488,7 +25488,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>33.8209705003793</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25603,10 +25603,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>153.713404487346</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>128.8068983107365</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>118.2170481604119</v>
       </c>
       <c r="E41" t="n">
-        <v>340.0689861632169</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>177.8556085655768</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0.7408225464386931</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
-        <v>157.217501479919</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>113.9040036163935</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,10 +25764,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>3.780149973290662</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>22.674545984785</v>
+        <v>41.73720206515858</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25865,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>382.001266128267</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,10 +25925,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>334.9303736826714</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C45" t="n">
-        <v>148.4072047390293</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25953,10 +25953,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26007,10 +26007,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>171.6540977017462</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26065,13 +26065,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.71328389118497</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26080,16 +26080,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>208.6071009908305</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345935.8052461843</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.72361079</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345935.8052461845</v>
+        <v>355312.72361079</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345935.8052461842</v>
+        <v>355312.7236107903</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355312.7236107903</v>
+        <v>358707.9309472631</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498720.1973742846</v>
+        <v>498720.1973742848</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490190.7971941855</v>
+        <v>495485.6875005898</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345935.8052461845</v>
+        <v>355312.7236107899</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605237</v>
       </c>
       <c r="C2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="D2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="E2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="F2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="G2" t="n">
-        <v>82895.9595960524</v>
+        <v>83687.10374583912</v>
       </c>
       <c r="H2" t="n">
-        <v>116312.4707719327</v>
+        <v>116312.4707719326</v>
       </c>
       <c r="I2" t="n">
         <v>116312.4707719327</v>
@@ -26350,10 +26350,10 @@
         <v>116312.4707719327</v>
       </c>
       <c r="O2" t="n">
-        <v>114324.9676874568</v>
+        <v>115558.7720105901</v>
       </c>
       <c r="P2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.9595960524</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="C4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="D4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="E4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="F4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="G4" t="n">
-        <v>25455.53560360218</v>
+        <v>23996.38648677058</v>
       </c>
       <c r="H4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="I4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="L4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>35408.78987609294</v>
+        <v>33426.83623350843</v>
       </c>
       <c r="P4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11396.27301674863</v>
+        <v>9833.895989305005</v>
       </c>
       <c r="C6" t="n">
-        <v>20642.32505206155</v>
+        <v>23099.36358838793</v>
       </c>
       <c r="D6" t="n">
-        <v>20642.32505206154</v>
+        <v>23099.36358838793</v>
       </c>
       <c r="E6" t="n">
-        <v>54269.92505206154</v>
+        <v>56726.96358838792</v>
       </c>
       <c r="F6" t="n">
-        <v>54269.92505206155</v>
+        <v>56726.96358838795</v>
       </c>
       <c r="G6" t="n">
-        <v>51746.38942955798</v>
+        <v>55760.86162893665</v>
       </c>
       <c r="H6" t="n">
-        <v>11272.85166415446</v>
+        <v>14888.38825358824</v>
       </c>
       <c r="I6" t="n">
-        <v>65620.58967274953</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="J6" t="n">
-        <v>58401.82510353942</v>
+        <v>57652.07132010951</v>
       </c>
       <c r="K6" t="n">
-        <v>65620.58967274956</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="L6" t="n">
-        <v>65620.58967274951</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="M6" t="n">
-        <v>65620.58967274957</v>
+        <v>68008.95522391329</v>
       </c>
       <c r="N6" t="n">
-        <v>65620.58967274953</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="O6" t="n">
-        <v>64991.73523105489</v>
+        <v>67754.80337469716</v>
       </c>
       <c r="P6" t="n">
-        <v>54269.92505206155</v>
+        <v>56726.96358838795</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N3" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N5" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M12" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P14" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M17" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36127,7 +36127,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36844,7 +36844,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37078,7 +37078,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37163,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,10 +37634,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>86.04614936844587</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>43.07490567886375</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>137.6753640914271</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>229.0204371761346</v>
+        <v>231.0918398430068</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O45" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
